--- a/진행상황/기능정의.xlsx
+++ b/진행상황/기능정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skena\OneDrive\바탕 화면\야나두\2020 한이음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C95671-A07C-4137-B855-9AF68277128E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A442E4F-B2BC-4E06-A7B6-F3911E163D36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3A6439D-395F-4F19-9B2E-340ADC79356E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로딩암 목업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라우드 서버에서 오는 데이터를 로그식 및 그래프로 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,74 @@
   </si>
   <si>
     <t>앱/웹 컨트롤러로 로딩암 목업 운행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주세환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주세환/임유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현석/윤민석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤민석/임유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤민석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임유빈/이현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나두민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드를 이용한 물류관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드 인식을 통해 물류들의 관리(저장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현석/나두민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드 인식 및 서버로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나두민/이현석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,43 +262,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -259,14 +286,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F175E3-8CED-4536-B8D0-023267F018E0}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -594,132 +621,193 @@
     <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="23.3984375" customWidth="1"/>
     <col min="4" max="4" width="52.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
